--- a/uploads/test_data_1.xlsx
+++ b/uploads/test_data_1.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Página1" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="user" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="users" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Telefone</t>
+    <t>password</t>
   </si>
   <si>
     <t>Data_Cadastro</t>
@@ -32,7 +32,7 @@
     <t>joao.silva@example.com</t>
   </si>
   <si>
-    <t>(11) 91234-5678</t>
+    <t>password123</t>
   </si>
   <si>
     <t>2024-01-01</t>
@@ -44,7 +44,7 @@
     <t>maria.souza@example.com</t>
   </si>
   <si>
-    <t>(21) 91345-6789</t>
+    <t>password124</t>
   </si>
   <si>
     <t>2024-01-02</t>
@@ -56,7 +56,7 @@
     <t>carlos.oliveira@example.com</t>
   </si>
   <si>
-    <t>(31) 91456-7890</t>
+    <t>password125</t>
   </si>
   <si>
     <t>2024-01-03</t>
@@ -68,7 +68,7 @@
     <t>ana.costa@example.com</t>
   </si>
   <si>
-    <t>(41) 91567-8901</t>
+    <t>password126</t>
   </si>
   <si>
     <t>2024-01-04</t>
@@ -80,7 +80,7 @@
     <t>roberta.lima@example.com</t>
   </si>
   <si>
-    <t>(51) 91678-9012</t>
+    <t>password127</t>
   </si>
   <si>
     <t>2024-01-05</t>
@@ -92,7 +92,7 @@
     <t>pedro.santos@example.com</t>
   </si>
   <si>
-    <t>(61) 91789-0123</t>
+    <t>password128</t>
   </si>
   <si>
     <t>2024-01-06</t>
@@ -104,7 +104,7 @@
     <t>patricia.rocha@example.com</t>
   </si>
   <si>
-    <t>(71) 91890-1234</t>
+    <t>password129</t>
   </si>
   <si>
     <t>2024-01-07</t>
@@ -116,7 +116,7 @@
     <t>jose.pereira@example.com</t>
   </si>
   <si>
-    <t>(81) 91901-2345</t>
+    <t>password130</t>
   </si>
   <si>
     <t>2024-01-08</t>
@@ -128,7 +128,7 @@
     <t>julia.silva@example.com</t>
   </si>
   <si>
-    <t>(91) 92012-3456</t>
+    <t>password131</t>
   </si>
   <si>
     <t>2024-01-09</t>
@@ -140,7 +140,7 @@
     <t>lucas.fernandes@example.com</t>
   </si>
   <si>
-    <t>(01) 92123-4567</t>
+    <t>password132</t>
   </si>
   <si>
     <t>2024-01-10</t>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -208,6 +208,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -443,7 +446,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -457,7 +460,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -471,7 +474,7 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -485,7 +488,7 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -499,7 +502,7 @@
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -513,7 +516,7 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -527,7 +530,7 @@
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -541,7 +544,7 @@
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -555,7 +558,7 @@
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -569,7 +572,7 @@
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -583,7 +586,7 @@
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1587,7 +1590,162 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>